--- a/biology/Zoologie/Chromodoris_willani/Chromodoris_willani.xlsx
+++ b/biology/Zoologie/Chromodoris_willani/Chromodoris_willani.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doris de Willan
 Chromodoris willani, le Doris de Willan, est une espèce de nudibranche de la famille des chromodorididés vivant dans l'Océan Pacifique.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nudibranche d'une taille maximum de 3 centimètres[1], possède une marge de manteau blanc et 2 lignes noirs, l'une autour du corps et l'autre est médiane. Ses rhinophores et ses panaches possèdent de nombreux points blancs.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nudibranche d'une taille maximum de 3 centimètres, possède une marge de manteau blanc et 2 lignes noirs, l'une autour du corps et l'autre est médiane. Ses rhinophores et ses panaches possèdent de nombreux points blancs.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit dans l'Océan Pacifique tropical, à Bornéo, aux États fédérés de Micronésie, à Okinawa. On peut aussi le retrouver en Australie, en Nouvelle-Calédonie, aux Îles Fidji et aux Îles Tonga. On les retrouve dans les récifs, les pentes externes et des tombants, entre 15 et 60 m de profondeur.
 </t>
